--- a/AutoChessServer/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/Group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AutoChessServer\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyAutoChess\AutoChessServer\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467EB75A-81BA-48D8-A4A7-E175F1F07C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC8F3E5-BCA3-40DA-ACA8-72CD66B887EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1-match" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -127,18 +127,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成的玩家数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>object</t>
   </si>
   <si>
@@ -185,6 +177,29 @@
   </si>
   <si>
     <t>ChessPlane2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棋盘状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaneOne</t>
+  </si>
+  <si>
+    <t>GameTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,9 +426,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,40 +796,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -824,8 +852,14 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -835,8 +869,14 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -846,8 +886,14 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -857,58 +903,88 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1">
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" ht="27">
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="27">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1">
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -917,385 +993,385 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CADACC-3EAB-45DC-8F88-4F3D58DDCEF4}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="D11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="13">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14">
-        <v>8</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="14">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="12" t="s">
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="C25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="14">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="14">
-        <v>7</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="14">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="14">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="14">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/AutoChessServer/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/Group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyAutoChess\AutoChessServer\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC8F3E5-BCA3-40DA-ACA8-72CD66B887EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91504F-3872-4496-9A7B-D4A20A80BFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1-match" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>游戏状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroEight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -991,15 +995,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CADACC-3EAB-45DC-8F88-4F3D58DDCEF4}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1011,34 +1015,37 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -1050,8 +1057,9 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -1063,8 +1071,9 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1085,9 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1089,8 +1099,9 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1102,8 +1113,9 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1115,8 +1127,9 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1141,9 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -1151,8 +1165,11 @@
       <c r="G11" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
@@ -1174,8 +1191,11 @@
       <c r="G12" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -1185,8 +1205,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -1198,34 +1219,37 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -1237,8 +1261,9 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
@@ -1250,8 +1275,9 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
@@ -1263,8 +1289,9 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="13" t="s">
         <v>5</v>
       </c>
@@ -1276,8 +1303,9 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="13" t="s">
         <v>6</v>
       </c>
@@ -1289,8 +1317,9 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="13" t="s">
         <v>7</v>
       </c>
@@ -1302,8 +1331,9 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
@@ -1315,8 +1345,9 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
@@ -1338,8 +1369,11 @@
       <c r="G24" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
@@ -1361,8 +1395,11 @@
       <c r="G25" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
@@ -1372,6 +1409,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1379,7 +1417,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A6 B5:B6 B8:B9 A17:A19 B18:B19 B21:B22" xr:uid="{BC26D612-B488-47B8-BBB0-E7565305B998}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:G9 A2:B3 C21:G22 A15:B16" xr:uid="{0C4F5568-B989-4E85-BB9E-FDFF00F8EBF1}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:H9 A2:B3 C21:H22 A15:B16" xr:uid="{0C4F5568-B989-4E85-BB9E-FDFF00F8EBF1}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/AutoChessServer/_Out/NFDataCfg/Excel/Group.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/Group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyAutoChess\AutoChessServer\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91504F-3872-4496-9A7B-D4A20A80BFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C8723-EDDF-4E25-B181-C80846002BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1-match" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -204,6 +204,22 @@
   </si>
   <si>
     <t>HeroEight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerOne</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerTwo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家二</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -800,19 +816,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -828,8 +846,14 @@
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -845,8 +869,14 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -862,8 +892,14 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -879,8 +915,14 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -896,8 +938,14 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -913,8 +961,14 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -930,8 +984,14 @@
       <c r="E7" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1">
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -947,8 +1007,14 @@
       <c r="E8" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="27">
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="27">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -964,8 +1030,14 @@
       <c r="E9" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1">
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -980,6 +1052,12 @@
       </c>
       <c r="E10" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CADACC-3EAB-45DC-8F88-4F3D58DDCEF4}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
